--- a/assets/project_brief/experiencetable.xlsx
+++ b/assets/project_brief/experiencetable.xlsx
@@ -5,43 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/bin/mamp/MampProject/TentainoJosho/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/bin/mamp/MampProject/TentainoJosho/assets/project_brief/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E5D05-5E89-4C44-9200-9189C8A9705F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DBC83-3701-9141-BA36-E86647B7F948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{B9762F7F-0367-2C43-98D8-0AFB1A79FD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$2:$B$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,10 +39,10 @@
     <t>Character Level</t>
   </si>
   <si>
-    <t>Required experience for next level</t>
+    <t>Required experience for the level</t>
   </si>
   <si>
-    <t>Experience per kill</t>
+    <t>Experience per death</t>
   </si>
 </sst>
 </file>
@@ -639,6 +612,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1177,7 +1153,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Required experience per level</a:t>
+              <a:t>Required experience for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> level</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1568,7 +1552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Required experience for next level</c:v>
+                  <c:v>Required experience for the level</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1591,6 +1575,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2134,7 +2121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experience per kill per number of kill necessary</a:t>
+              <a:t>Experience per death per number of kill necessary</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2183,7 +2170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Experience per kill</c:v>
+                  <c:v>Experience per death</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2216,6 +2203,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5067,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD645C32-125C-B348-B514-4E1AF220B724}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -5100,7 +5090,12 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
       <c r="D2" s="3">
         <f>C3/B3</f>
         <v>8</v>
@@ -6842,16 +6837,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BA7CFE-BF50-A24E-9C4E-D6C129AD6E17}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>